--- a/biology/Botanique/Lawrence_Millman/Lawrence_Millman.xlsx
+++ b/biology/Botanique/Lawrence_Millman/Lawrence_Millman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lawrence Millman (né le 13 janvier 1948 à Kansas City dans le Missouri) est un auteur de récits de voyages, écrivain et mycologue américain. Il réside à Cambridge (Massachusetts).
 Il a publié de nombreux livres, parmi lesquels Our Like Will Not Be There Again, Northern Latitudes - Prose Poems, Last Places (traduit en français sous le titre de Coins perdus), An Evening Among Headhunters, A Kayak Full of Ghosts, Lost in the Arctic et Fascinating Fungi of New England. Il a également écrit pour les revues Smithsonian, National Geographic Adventure, Atlantic Monthly, Sports Illustrated, et Islands. Il a remporté plusieurs prix, dont un Northern Lights Award, un Lowell Thomas Award, un prix du meilleur article sur le Canada dans une publication britannique en 1996, et un Pacific-Asia Gold Travel Award ; il a figuré trois ans d'affilée dans l'anthologie du Best American Travel Writing (Houghton Mifflin).
@@ -513,7 +525,9 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Coins perdus : un parcours dans l'Atlantique nord (titre original : Last Places), Terres d'aventure, 1995  (ISBN 2-7427-0475-2)
 Jesse le héros [« Hero Jesse »], trad. de Christophe Claro, Paris, Sonatine Éditions, 2018, 208 p.  (ISBN 978-2-355-84670-0)</t>
